--- a/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
+++ b/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\03_用紙入庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHIMODA_kiri10\用紙管理\03_用紙入庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8F041-7246-47E7-9BA0-C99382F53362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78738744-F879-4C08-A9F7-52E048C4BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
+    <workbookView xWindow="16540" yWindow="230" windowWidth="20410" windowHeight="19960" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
   <sheets>
     <sheet name="概要書" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="113">
   <si>
     <t>###</t>
   </si>
@@ -525,6 +525,10 @@
     <rPh sb="2" eb="3">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08_01_製紙会社リスト.tbx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1032,18 +1036,18 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="0.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="8" width="38.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="86.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.640625" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="86.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F1" s="8" t="s">
         <v>101</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1113,8 +1117,11 @@
       <c r="D7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1319,7 +1326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>77</v>
       </c>
@@ -1343,13 +1350,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>109</v>
       </c>
@@ -1374,14 +1381,14 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>38</v>
       </c>
@@ -1389,63 +1396,63 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <f>E6+E7</f>
+        <f t="shared" ref="F6:K6" si="0">E6+E7</f>
         <v>105</v>
       </c>
       <c r="G6">
-        <f>F6+F7</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="H6">
-        <f>G6+G7</f>
+        <f t="shared" si="0"/>
         <v>337</v>
       </c>
       <c r="I6">
-        <f>H6+H7</f>
+        <f t="shared" si="0"/>
         <v>371</v>
       </c>
       <c r="J6">
-        <f>I6+I7</f>
+        <f t="shared" si="0"/>
         <v>419</v>
       </c>
       <c r="K6">
-        <f>J6+J7</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:S6" si="0">K6+K7</f>
+        <f t="shared" ref="L6:S6" si="1">K6+K7</f>
         <v>477</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>542</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>614</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>718</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>805</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>885</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>67</v>
       </c>
@@ -1503,14 +1510,14 @@
       <selection activeCell="B27" sqref="A4:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1521,12 +1528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1929,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2895,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3446,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>

--- a/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
+++ b/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHIMODA_kiri10\用紙管理\03_用紙入庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\03_用紙入庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78738744-F879-4C08-A9F7-52E048C4BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6EA72E-C17E-4FCE-8D3B-1B0129444C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16540" yWindow="230" windowWidth="20410" windowHeight="19960" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
   <sheets>
     <sheet name="概要書" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="114">
   <si>
     <t>###</t>
   </si>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>08_01_製紙会社リスト.tbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>004_用紙_08_01_製紙会社リスト_1.wfx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1036,18 +1040,18 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="0.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.640625" customWidth="1"/>
-    <col min="7" max="8" width="38.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="86.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="0.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="8" width="38.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="86.44140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="8" t="s">
         <v>101</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1120,8 +1124,11 @@
       <c r="F7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1143,7 +1150,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1176,7 +1183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1261,7 +1268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1342,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>77</v>
       </c>
@@ -1350,13 +1357,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>109</v>
       </c>
@@ -1381,14 +1388,14 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>38</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>67</v>
       </c>
@@ -1510,14 +1517,14 @@
       <selection activeCell="B27" sqref="A4:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1528,12 +1535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2659,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2985,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>

--- a/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
+++ b/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\03_用紙入庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6EA72E-C17E-4FCE-8D3B-1B0129444C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3207C6-391A-45D3-9A3F-DCABA6B37E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="120">
   <si>
     <t>###</t>
   </si>
@@ -533,6 +533,61 @@
   </si>
   <si>
     <t>004_用紙_08_01_製紙会社リスト_1.wfx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景動作</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入庫予定日付</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受領日</t>
+    <rPh sb="0" eb="3">
+      <t>ジュリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HEX	#7E819B
+NAME	-
+TONE	おとなしい青紫
+RGB	126 129 155</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEX	#3F425B
+NAME	-
+TONE	濁った青紫
+RGB	63 66 91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字白にする？</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -655,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0C29F7-0024-4947-A2F3-7A0A86436999}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1372,6 +1430,33 @@
       </c>
       <c r="D30" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
+++ b/用紙管理/03_用紙入庫/入庫フォーム設計図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\03_用紙入庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHIMODA_kiri10\用紙管理\03_用紙入庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3207C6-391A-45D3-9A3F-DCABA6B37E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B53AC9F-25E9-405B-B79A-C4B97DF20C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
   <sheets>
     <sheet name="概要書" sheetId="2" r:id="rId1"/>
@@ -1097,19 +1097,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0C29F7-0024-4947-A2F3-7A0A86436999}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="0.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="8" width="38.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="86.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.640625" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="86.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F1" s="8" t="s">
         <v>101</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>77</v>
       </c>
@@ -1415,13 +1415,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>109</v>
       </c>
@@ -1432,12 +1432,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="5:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8" ht="75" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>115</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="5:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8" ht="60" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>116</v>
       </c>
@@ -1473,14 +1473,14 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>38</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>67</v>
       </c>
@@ -1602,14 +1602,14 @@
       <selection activeCell="B27" sqref="A4:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1620,12 +1620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>
